--- a/biology/Botanique/Conservatoire_botanique_des_Antilles_françaises/Conservatoire_botanique_des_Antilles_françaises.xlsx
+++ b/biology/Botanique/Conservatoire_botanique_des_Antilles_françaises/Conservatoire_botanique_des_Antilles_françaises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conservatoire_botanique_des_Antilles_fran%C3%A7aises</t>
+          <t>Conservatoire_botanique_des_Antilles_françaises</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conservatoire botanique des Antilles françaises (CBAF) est un conservatoire botanique français dissous depuis novembre 2010. 
 Il comprenait jusqu'à cette dissolution deux Antennes installées l’une en Guadeloupe, créée en mars 2002, et l’autre en Martinique, créée en 2003 ; ces Antennes sont devenues depuis lors des conservatoires botaniques de plein exercice, engagés chacun dans une démarche de demande d'agrément en tant que CBN. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conservatoire_botanique_des_Antilles_fran%C3%A7aises</t>
+          <t>Conservatoire_botanique_des_Antilles_françaises</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Missions du CBAF, du CBM et du CBIG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mieux connaître la flore locale
 L’amélioration des connaissances est nécessaire pour localiser et suivre les populations sensibles, évaluer les risques encourus par la végétation autochtone, suivre l’état des écosystèmes, et réaliser une conservation efficace des plantes.
